--- a/data/trans_dic/P02E$contratada-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P02E$contratada-Edad-trans_dic.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00430942191316503</v>
+        <v>0.004282765937592071</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
@@ -764,10 +764,10 @@
       </c>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
-        <v>0.002179859136357452</v>
+        <v>0.002583830690184707</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003202253140267099</v>
+        <v>0.003161912612580887</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -781,29 +781,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05562461478950602</v>
+        <v>0.05735992260406209</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0397610397036094</v>
+        <v>0.03752820449363015</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02964675153853984</v>
+        <v>0.02957825925760203</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0241250110584962</v>
+        <v>0.02568068474717386</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03215309250905098</v>
+        <v>0.02776267554083183</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.02555669165531693</v>
+        <v>0.02553317421447446</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02527128227312246</v>
+        <v>0.02447618784416625</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01098629117728517</v>
+        <v>0.01315486850730265</v>
       </c>
     </row>
     <row r="10">
@@ -853,31 +853,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006264790096614057</v>
+        <v>0.006309005019556497</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.00672674515554733</v>
+        <v>0.006864729618227694</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00338211637699792</v>
+        <v>0.003008022320838522</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01132893095992286</v>
+        <v>0.01073140073559521</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006401566276940618</v>
+        <v>0.005534872818952702</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01157589079511015</v>
+        <v>0.01142614357989693</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01124389860585039</v>
+        <v>0.01100752634971671</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.008253113364463395</v>
+        <v>0.008509109525686207</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01063144765020192</v>
+        <v>0.01069179855056314</v>
       </c>
     </row>
     <row r="12">
@@ -888,31 +888,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04334644613700585</v>
+        <v>0.04774092093854376</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04051894346076276</v>
+        <v>0.04231676636187461</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03548198776448578</v>
+        <v>0.03632969052175217</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04730011463090817</v>
+        <v>0.04468489628697583</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03018113089813834</v>
+        <v>0.02701619633035848</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04303659783061973</v>
+        <v>0.04224428160353019</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03706745705223691</v>
+        <v>0.03670346260350646</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02849690620000358</v>
+        <v>0.02754672544802653</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03207362691903783</v>
+        <v>0.03272198906942154</v>
       </c>
     </row>
     <row r="13">
@@ -965,28 +965,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004202359450294173</v>
+        <v>0.004174872056444304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02025586179148306</v>
+        <v>0.01955111839354419</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.004137075950922708</v>
+        <v>0.004119389739686114</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.005968873472622665</v>
+        <v>0.00600035168296831</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003888129579384172</v>
+        <v>0.003889521677445394</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006654067139853849</v>
+        <v>0.006500616266554075</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0185066021511005</v>
+        <v>0.01837701285973205</v>
       </c>
     </row>
     <row r="15">
@@ -997,31 +997,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04141946946774517</v>
+        <v>0.04170455653541032</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03745755151964778</v>
+        <v>0.03570367466386933</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08871967028808078</v>
+        <v>0.08213947978018031</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07988726209796698</v>
+        <v>0.07929505111613301</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04037190090609055</v>
+        <v>0.04060216492834755</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0590135727976696</v>
+        <v>0.0587628181281468</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04596835281489707</v>
+        <v>0.04627121487755104</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02946499834834746</v>
+        <v>0.02942988077765481</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05959133622603727</v>
+        <v>0.05931114086372181</v>
       </c>
     </row>
     <row r="16">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02532392301902739</v>
+        <v>0.02105341611842133</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0173322886681982</v>
+        <v>0.01905653835929493</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0</v>
+        <v>0.009864374869474741</v>
       </c>
     </row>
     <row r="18">
@@ -1104,25 +1104,25 @@
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.1811870269046718</v>
+        <v>0.1800629209282645</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09090560767405589</v>
+        <v>0.1081855346516764</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1323137934904305</v>
+        <v>0.1282655139727047</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08258247742421833</v>
+        <v>0.07099735482018274</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07122616882681199</v>
+        <v>0.05980708399654221</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09539921470711282</v>
+        <v>0.08943796788455372</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08505814546895636</v>
+        <v>0.09038318212371513</v>
       </c>
     </row>
     <row r="19">
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02866631684320616</v>
+        <v>0.02876836488938609</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01690868476296506</v>
+        <v>0.01686936135378717</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0139159145366496</v>
+        <v>0.01384967272999576</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0338237121103863</v>
+        <v>0.03395874474279943</v>
       </c>
     </row>
     <row r="21">
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3821755253208766</v>
+        <v>0.4248781994779964</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2945128032588551</v>
+        <v>0.3349814131755231</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2336620224908682</v>
+        <v>0.1846870681811538</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1107581672783298</v>
+        <v>0.1116174041380042</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1071464659948267</v>
+        <v>0.1042994316938385</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2437852253098183</v>
+        <v>0.2618932114334266</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1342683494341272</v>
+        <v>0.135556365729216</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1203067698947766</v>
+        <v>0.1183414122877879</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1922710313421027</v>
+        <v>0.1802743939570185</v>
       </c>
     </row>
     <row r="22">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05441984023396555</v>
+        <v>0.05144484837560828</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02726295462397965</v>
+        <v>0.02734351711560412</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04067701757101599</v>
+        <v>0.05498226916503936</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03496545902620875</v>
+        <v>0.03554800354524602</v>
       </c>
     </row>
     <row r="24">
@@ -1316,31 +1316,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2247459161232679</v>
+        <v>0.2414213982772764</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3536732820737382</v>
+        <v>0.2961672578034876</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3789395099340193</v>
+        <v>0.4110159171007919</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1797309941462093</v>
+        <v>0.2239660011508108</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2693433772974221</v>
+        <v>0.267056538285381</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2347854298225473</v>
+        <v>0.2282331027121942</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1514891517344463</v>
+        <v>0.1491201020933915</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2140352997882573</v>
+        <v>0.2307296776154371</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1999321753913039</v>
+        <v>0.2054695763353865</v>
       </c>
     </row>
     <row r="25">
@@ -1390,31 +1390,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.008495247021382969</v>
+        <v>0.008612073867771745</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.00975808502566191</v>
+        <v>0.009856341343384256</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01382992081206635</v>
+        <v>0.01423062128688245</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01014406286268207</v>
+        <v>0.01022745839017606</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01273817289822906</v>
+        <v>0.0124087449516218</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01256062562535054</v>
+        <v>0.01292774132032781</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.011598361441671</v>
+        <v>0.01173832180378101</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01295007627918228</v>
+        <v>0.01292480200772786</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01535820840389223</v>
+        <v>0.01501167811580892</v>
       </c>
     </row>
     <row r="27">
@@ -1425,31 +1425,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03340353868922658</v>
+        <v>0.03270489087822527</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02697739162228813</v>
+        <v>0.02782786998637292</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03678226731994452</v>
+        <v>0.03677431033770811</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02867513657975724</v>
+        <v>0.02878387025312814</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02918461469402468</v>
+        <v>0.02672692800416068</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03150654271741368</v>
+        <v>0.03046447324392034</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02620553226928697</v>
+        <v>0.0263228969908688</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02399932860244533</v>
+        <v>0.0248431160519951</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02978062872938546</v>
+        <v>0.02919271787552177</v>
       </c>
     </row>
     <row r="28">
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
@@ -1805,10 +1805,10 @@
       </c>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
-        <v>1024</v>
+        <v>1214</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1937</v>
+        <v>1912</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -1822,29 +1822,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9281</v>
+        <v>9570</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8518</v>
+        <v>8040</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5138</v>
+        <v>5126</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7308</v>
+        <v>7779</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12557</v>
+        <v>10843</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>12005</v>
+        <v>11994</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15284</v>
+        <v>14803</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5127</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="12">
@@ -1929,31 +1929,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1695</v>
+        <v>1707</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2788</v>
+        <v>2845</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1054</v>
+        <v>938</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4443</v>
+        <v>4208</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3675</v>
+        <v>3177</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4715</v>
+        <v>4654</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7451</v>
+        <v>7295</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8158</v>
+        <v>8411</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7645</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="15">
@@ -1964,31 +1964,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11728</v>
+        <v>12917</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16794</v>
+        <v>17539</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11063</v>
+        <v>11327</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18548</v>
+        <v>17523</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17325</v>
+        <v>15508</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17530</v>
+        <v>17207</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24565</v>
+        <v>24324</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28170</v>
+        <v>27230</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23064</v>
+        <v>23531</v>
       </c>
     </row>
     <row r="16">
@@ -2076,28 +2076,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3178</v>
+        <v>3067</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>899</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3263</v>
+        <v>3187</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6276</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="19">
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4573</v>
+        <v>4605</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8567</v>
+        <v>8165</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13918</v>
+        <v>12886</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9654</v>
+        <v>9582</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10563</v>
+        <v>10623</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10756</v>
+        <v>10710</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>10631</v>
+        <v>10701</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14448</v>
+        <v>14430</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20209</v>
+        <v>20114</v>
       </c>
     </row>
     <row r="20">
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2546</v>
+        <v>2117</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
@@ -2234,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2594</v>
+        <v>2852</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>0</v>
+        <v>957</v>
       </c>
     </row>
     <row r="23">
@@ -2250,25 +2250,25 @@
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>7291</v>
+        <v>7246</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6091</v>
+        <v>7249</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>13302</v>
+        <v>12895</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>4689</v>
+        <v>4031</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6051</v>
+        <v>5081</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>14279</v>
+        <v>13387</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>8252</v>
+        <v>8769</v>
       </c>
     </row>
     <row r="24">
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1952</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="27">
@@ -2388,31 +2388,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5417</v>
+        <v>6022</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6566</v>
+        <v>7468</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4964</v>
+        <v>3924</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5198</v>
+        <v>5238</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5066</v>
+        <v>4932</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8887</v>
+        <v>9547</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8204</v>
+        <v>8283</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8370</v>
+        <v>8234</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11094</v>
+        <v>10402</v>
       </c>
     </row>
     <row r="28">
@@ -2509,19 +2509,19 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2244</v>
+        <v>2121</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2285</v>
+        <v>3089</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2005</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="31">
@@ -2532,31 +2532,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3640</v>
+        <v>3911</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>5287</v>
+        <v>4427</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4719</v>
+        <v>5118</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>4571</v>
+        <v>5695</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11106</v>
+        <v>11011</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>10542</v>
+        <v>10247</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>6306</v>
+        <v>6207</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>12025</v>
+        <v>12963</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>11467</v>
+        <v>11784</v>
       </c>
     </row>
     <row r="32">
@@ -2641,31 +2641,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>5320</v>
+        <v>5393</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>9610</v>
+        <v>9707</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>10465</v>
+        <v>10768</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>10203</v>
+        <v>10287</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>19322</v>
+        <v>18823</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>13955</v>
+        <v>14363</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>18929</v>
+        <v>19157</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>32397</v>
+        <v>32334</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>28684</v>
+        <v>28037</v>
       </c>
     </row>
     <row r="35">
@@ -2676,31 +2676,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>20917</v>
+        <v>20480</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>26567</v>
+        <v>27405</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>27832</v>
+        <v>27826</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>28842</v>
+        <v>28951</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>44270</v>
+        <v>40542</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>35003</v>
+        <v>33846</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>42768</v>
+        <v>42959</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>60039</v>
+        <v>62150</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>55620</v>
+        <v>54522</v>
       </c>
     </row>
     <row r="36">
